--- a/src/main/resources/ru/avem/kvm120/app/protocol.xlsx
+++ b/src/main/resources/ru/avem/kvm120/app/protocol.xlsx
@@ -19,12 +19,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Испытательное оборудование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВЭМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «Авиаагрегат-Н»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протокол испытания №</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#PROTOCOL_NUMBER#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DATE#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#TIME#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значения</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -49,6 +84,26 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,9 +148,65 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -110,89 +221,160 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>843840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7388640" y="36360"/>
+          <a:ext cx="671040" cy="684720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="3" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -200,5 +382,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/ru/avem/kvm120/app/protocol.xlsx
+++ b/src/main/resources/ru/avem/kvm120/app/protocol.xlsx
@@ -223,18 +223,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>172800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1435680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>843840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:colOff>601920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -247,8 +247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7388640" y="36360"/>
-          <a:ext cx="671040" cy="684720"/>
+          <a:off x="6847560" y="20520"/>
+          <a:ext cx="970200" cy="970200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -271,10 +271,10 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
